--- a/data/trans_bre/P16A15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 2,23</t>
+          <t>-4,15; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 0,64</t>
+          <t>-7,63; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -0,47</t>
+          <t>-7,9; -0,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 2,19</t>
+          <t>-4,76; 1,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-62,59; 52,77</t>
+          <t>-62,97; 54,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-70,51; 11,66</t>
+          <t>-66,57; 11,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,29; -5,09</t>
+          <t>-74,61; -2,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 21,85</t>
+          <t>-35,58; 18,8</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 0,68</t>
+          <t>-5,49; 0,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 2,0</t>
+          <t>-6,85; 1,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,11</t>
+          <t>-6,02; 1,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -1,12</t>
+          <t>-8,57; -0,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 23,1</t>
+          <t>-75,13; 28,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,05; 30,34</t>
+          <t>-59,62; 23,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 34,79</t>
+          <t>-58,46; 29,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,3; -9,86</t>
+          <t>-52,78; -7,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,17</t>
+          <t>-2,7; 5,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 1,18</t>
+          <t>-7,62; 1,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 8,87</t>
+          <t>-4,56; 8,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 17,74</t>
+          <t>-0,33; 15,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,76; 132,52</t>
+          <t>-42,75; 130,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 16,95</t>
+          <t>-56,63; 14,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 90,05</t>
+          <t>-37,83; 82,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 414,76</t>
+          <t>-3,8; 375,27</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,41</t>
+          <t>-3,73; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,96</t>
+          <t>-6,92; -0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,98</t>
+          <t>-6,29; -1,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 49,96</t>
+          <t>-4,04; 47,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 6,93</t>
+          <t>-44,96; 9,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,1; -8,42</t>
+          <t>-51,57; -8,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,8; -8,58</t>
+          <t>-53,63; -12,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 393,63</t>
+          <t>-28,88; 354,64</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,09</t>
+          <t>0,28; 6,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 7,66</t>
+          <t>-0,15; 7,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 5,81</t>
+          <t>-1,29; 5,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 9,04</t>
+          <t>-0,05; 9,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 208,43</t>
+          <t>2,07; 204,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 79,98</t>
+          <t>-1,34; 84,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 61,6</t>
+          <t>-10,31; 60,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 85,95</t>
+          <t>0,78; 87,13</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,57</t>
+          <t>8,44; 12,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,66</t>
+          <t>13,46; 19,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,76</t>
+          <t>12,32; 17,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,69</t>
+          <t>13,02; 18,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>357,14; 3971,65</t>
+          <t>329,95; 4160,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>308,75; —</t>
+          <t>250,03; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>481,68; —</t>
+          <t>408,24; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>366,73; 2820,42</t>
+          <t>402,61; 3732,57</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,39</t>
+          <t>0,84; 3,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,69</t>
+          <t>0,23; 3,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,25</t>
+          <t>0,12; 3,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 22,08</t>
+          <t>1,73; 22,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,85; 66,82</t>
+          <t>12,7; 60,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 38,63</t>
+          <t>1,94; 37,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 38,1</t>
+          <t>1,33; 34,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,61; 200,51</t>
+          <t>13,91; 214,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
